--- a/StructureDefinition-ext-R5-CarePlan.addresses.xlsx
+++ b/StructureDefinition-ext-R5-CarePlan.addresses.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,7 +434,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -471,7 +471,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -832,7 +832,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="104.16796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-CarePlan.addresses.xlsx
+++ b/StructureDefinition-ext-R5-CarePlan.addresses.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `CarePlan.addresses` 0..* `Reference(http://hl7.org/fhir/StructureDefinition/Condition)`
 *  R4: `CarePlan.addresses` 0..* `Reference(http://hl7.org/fhir/StructureDefinition/Condition)`
 Following are the generation technical comments:
-Element `CarePlan.addresses` is mapped to FHIR R4 element `CarePlan.addresses`.</t>
+Element `CarePlan.addresses` has is mapped to FHIR R4 element `CarePlan.addresses`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -433,8 +433,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -471,8 +471,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -832,7 +832,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-CarePlan.addresses.xlsx
+++ b/StructureDefinition-ext-R5-CarePlan.addresses.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -433,8 +433,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -456,7 +455,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-clinical-findings-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-clinical-findings-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:reference</t>
@@ -471,8 +470,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -487,7 +485,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition)
 </t>
   </si>
   <si>
@@ -832,7 +830,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -843,7 +841,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.7890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.70703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-CarePlan.addresses.xlsx
+++ b/StructureDefinition-ext-R5-CarePlan.addresses.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `CarePlan.addresses` 0..* `Reference(http://hl7.org/fhir/StructureDefinition/Condition)`
 *  R4: `CarePlan.addresses` 0..* `Reference(http://hl7.org/fhir/StructureDefinition/Condition)`
 Following are the generation technical comments:
-Element `CarePlan.addresses` has is mapped to FHIR R4 element `CarePlan.addresses`, but has no comparisons.</t>
+Element `CarePlan.addresses` is mapped to FHIR R4 element `CarePlan.addresses` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -433,7 +433,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -452,12 +452,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-clinical-findings-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:reference</t>
   </si>
   <si>
@@ -470,7 +464,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -485,7 +479,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|Condition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Condition|0.0.1-snapshot-3|Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -830,7 +824,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.76171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -841,7 +835,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2282,11 +2276,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2324,13 +2320,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2355,14 +2351,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2431,7 +2427,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2534,7 +2530,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2639,7 +2635,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2682,7 +2678,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2744,7 +2740,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2770,13 +2766,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2978,7 +2974,7 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>123</v>
